--- a/利润表/600738.xlsx
+++ b/利润表/600738.xlsx
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2019-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>79435269.84999999</v>
+        <v>202869167.13</v>
       </c>
       <c r="P2" t="n">
-        <v>436639740.19</v>
+        <v>1364786417.99</v>
       </c>
       <c r="Q2" t="n">
-        <v>327699737.27</v>
+        <v>1153579081.36</v>
       </c>
       <c r="R2" t="n">
-        <v>-71.5927808882</v>
+        <v>25.6355642712</v>
       </c>
       <c r="S2" t="n">
-        <v>164623069.72</v>
+        <v>962027431.8099999</v>
       </c>
       <c r="T2" t="n">
-        <v>164623069.72</v>
+        <v>962027431.8099999</v>
       </c>
       <c r="U2" t="n">
-        <v>-82.88790274820001</v>
+        <v>38.6848679984</v>
       </c>
       <c r="V2" t="n">
-        <v>40189908.63</v>
+        <v>47729124.05</v>
       </c>
       <c r="W2" t="n">
-        <v>73361218.09999999</v>
+        <v>84887333.09999999</v>
       </c>
       <c r="X2" t="n">
-        <v>23020682.88</v>
+        <v>15472359.61</v>
       </c>
       <c r="Y2" t="n">
-        <v>121409262.9</v>
+        <v>274187759.31</v>
       </c>
       <c r="Z2" t="n">
-        <v>116652793.04</v>
+        <v>274255101.13</v>
       </c>
       <c r="AA2" t="n">
-        <v>37217523.19</v>
+        <v>71385934</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>26504857.94</v>
+        <v>43462832.79</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>-68.0067346484</v>
+        <v>28.2287060491</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-55.720392768252</v>
+        <v>-82.803618622306</v>
       </c>
       <c r="AR2" t="n">
-        <v>-60.84</v>
+        <v>-83.79788318052501</v>
       </c>
       <c r="AS2" t="n">
-        <v>71725519.38</v>
+        <v>152633654.2</v>
       </c>
       <c r="AT2" t="n">
-        <v>-53.008057262381</v>
+        <v>55.63777918967</v>
       </c>
     </row>
   </sheetData>
